--- a/data/trans_camb/P16A03-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.286205026746674</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.8786351555283644</v>
+        <v>-0.878635155528364</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-1.007100252290876</v>
@@ -664,7 +664,7 @@
         <v>-0.4818317089815088</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.2642756336619402</v>
+        <v>-0.2642756336619395</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.552489655527019</v>
+        <v>-2.697997654140301</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.902864408306247</v>
+        <v>-4.098711136354599</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.469631305979237</v>
+        <v>-3.228723076006689</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.246995848052969</v>
+        <v>-5.350990962056961</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.447180340109814</v>
+        <v>-4.219641755879271</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.12182555995401</v>
+        <v>-4.040430026332579</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.416287076186517</v>
+        <v>-2.901425193576765</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.18873473640049</v>
+        <v>-2.785194008091088</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.745102071263587</v>
+        <v>-2.561375582934798</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.550678119871252</v>
+        <v>2.673904524567915</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7104615731063474</v>
+        <v>0.6617056697582396</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9899722256873134</v>
+        <v>1.08569572206789</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.222264312970864</v>
+        <v>3.417309655315126</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.90818094891752</v>
+        <v>4.510840542131604</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.047982035882817</v>
+        <v>3.481575008829542</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.904553631433536</v>
+        <v>2.206437415215073</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.986241907942652</v>
+        <v>1.940957230162338</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.906396583994123</v>
+        <v>1.89100278320275</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.5477698525596358</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.3741937246310247</v>
+        <v>-0.3741937246310246</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.1455353045313365</v>
@@ -769,7 +769,7 @@
         <v>-0.1051597183096005</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.05767812842937523</v>
+        <v>-0.05767812842937508</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,29 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7456404634328241</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.7451625330494915</v>
+      </c>
+      <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="n">
-        <v>-0.8609173741309879</v>
+        <v>-0.8703892816282529</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5942415074875759</v>
+        <v>-0.5817581729052512</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.510195874616538</v>
+        <v>-0.5116561584052834</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.402224616620275</v>
+        <v>-0.4244844517341679</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5629545986688159</v>
+        <v>-0.5064910287984692</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5114067167627216</v>
+        <v>-0.4794206580750763</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4325847606102507</v>
+        <v>-0.4243059977076595</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +813,29 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.729281804054537</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>1.367265334712103</v>
-      </c>
+        <v>3.01970922436559</v>
+      </c>
+      <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="n">
-        <v>1.072988662349445</v>
+        <v>1.585838137710778</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6742252886646481</v>
+        <v>0.7236844310673186</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.003409314639121</v>
+        <v>0.9529427552016152</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9372181004360641</v>
+        <v>0.7226906800646626</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5585745660089384</v>
+        <v>0.6917992762407541</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6259042503653119</v>
+        <v>0.6419745961784982</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6669492144163627</v>
+        <v>0.6268133183697672</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +856,7 @@
         <v>-0.6404956210391985</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.7841475354619073</v>
+        <v>-0.7841475354619074</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.364386475191395</v>
@@ -889,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.190501360905713</v>
+        <v>-2.112494934758922</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.820151721131462</v>
+        <v>-2.680948861265041</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.76480142199623</v>
+        <v>-3.027748369962061</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.299582130071138</v>
+        <v>-1.673049984756316</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.358035211405705</v>
+        <v>-4.527365107423094</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.991479406196038</v>
+        <v>-4.020062709209904</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.123193752722946</v>
+        <v>-1.071972548204904</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.167092705394925</v>
+        <v>-2.850505030781931</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.677544110305114</v>
+        <v>-2.962719367294848</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.986253122268742</v>
+        <v>2.237407790786259</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9368499950337432</v>
+        <v>0.8234360623765208</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8057237605801481</v>
+        <v>0.680870960591309</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.354662378163973</v>
+        <v>4.079393981689729</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2274486382215989</v>
+        <v>0.002755862865779935</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2523496864544942</v>
+        <v>0.2222288308542935</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.384901472545986</v>
+        <v>2.467176173988984</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.1088442704240478</v>
+        <v>0.02424022812040402</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.005755085764848658</v>
+        <v>-0.05369749169485466</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +961,7 @@
         <v>-0.3474982269123535</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.425435973736389</v>
+        <v>-0.4254359737363891</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3182855935659469</v>
@@ -994,31 +990,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8413834493805629</v>
+        <v>-0.8229474690550954</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8310592565844518</v>
+        <v>-0.8653935170723909</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.8859131080577605</v>
+        <v>-0.8838942337809658</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2442478456859765</v>
+        <v>-0.3085343605974895</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7524459476048309</v>
+        <v>-0.775760718507874</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6874406559743709</v>
+        <v>-0.6806388723912613</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2943560161429136</v>
+        <v>-0.2827870957561973</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7166397079135501</v>
+        <v>-0.7074035855886489</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6827415602112462</v>
+        <v>-0.6785006372158405</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1025,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.764143441550496</v>
+        <v>3.253940301278273</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.44016879599835</v>
+        <v>1.227611342479837</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.372754144851601</v>
+        <v>1.206317864677003</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.487804466839824</v>
+        <v>1.305905242494337</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1621369718061098</v>
+        <v>0.02564204019758527</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1061301913181921</v>
+        <v>0.100685923028624</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9999771907408516</v>
+        <v>1.095314218846869</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.02268404327230157</v>
+        <v>0.03920831949487485</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.001204371541015713</v>
+        <v>0.004107465735404077</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1070,7 @@
         <v>-0.7068153907448478</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.900892377734632</v>
+        <v>2.900892377734631</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.3640034514273922</v>
@@ -1083,7 +1079,7 @@
         <v>-1.833484573011158</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.383576799205558</v>
+        <v>2.383576799205557</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.3250812242764606</v>
@@ -1103,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.737820332203965</v>
+        <v>-1.886175189008297</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.290212023827952</v>
+        <v>-2.963678477262037</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5632097909987707</v>
+        <v>0.5130071861363493</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.248492845549272</v>
+        <v>-3.020068530206506</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.009657267623638</v>
+        <v>-5.221043989833725</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.145834469466278</v>
+        <v>-1.09973821667783</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.830465762974185</v>
+        <v>-1.56183202811972</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.16109666889371</v>
+        <v>-3.021440832514733</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4844582103583367</v>
+        <v>0.5434487698039616</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.062044103085142</v>
+        <v>1.802289723818481</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3788669562672638</v>
+        <v>0.4465322362313687</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.567742725415575</v>
+        <v>5.368421465347326</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.660981923201178</v>
+        <v>4.191086419587423</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.247773711225461</v>
+        <v>1.313285577747711</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.401888078982595</v>
+        <v>5.488701742034884</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.427848393275414</v>
+        <v>2.289628024131306</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4439678627903194</v>
+        <v>0.5914017834982274</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.655537883105705</v>
+        <v>4.822431126382712</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1184,7 @@
         <v>-0.3441585123403649</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4474148609368208</v>
+        <v>0.4474148609368205</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.09794975998997511</v>
@@ -1197,7 +1193,7 @@
         <v>-0.3862041066814411</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.8134459948189094</v>
+        <v>0.8134459948189097</v>
       </c>
     </row>
     <row r="20">
@@ -1208,29 +1204,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8472984648205307</v>
+        <v>-1</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.1986141076940418</v>
+        <v>-0.1395732404936145</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4633486086058933</v>
+        <v>-0.4521407809469892</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7193698990224451</v>
+        <v>-0.7062571691818965</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1705351546379745</v>
+        <v>-0.144204547557434</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4424397655970928</v>
+        <v>-0.3815258264621141</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7189782917992432</v>
+        <v>-0.7213477852657471</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.07515072425723679</v>
+        <v>0.0815024060630245</v>
       </c>
     </row>
     <row r="21">
@@ -1241,29 +1237,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>10.65086892594901</v>
+        <v>5.974735316103374</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>15.85242461392368</v>
+        <v>16.73460816504113</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.022454960984473</v>
+        <v>1.135524968988851</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3990763052196247</v>
+        <v>0.4177500908347205</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.546817053138146</v>
+        <v>1.613054314050538</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.016808172334467</v>
+        <v>0.9830662930314511</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2511231495522288</v>
+        <v>0.2978046901642191</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.954127586282358</v>
+        <v>2.0241426128395</v>
       </c>
     </row>
     <row r="22">
@@ -1302,7 +1298,7 @@
         <v>-0.3191206791017371</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.038400839545568</v>
+        <v>-3.038400839545569</v>
       </c>
     </row>
     <row r="23">
@@ -1313,31 +1309,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.211130142222638</v>
+        <v>-4.150335133236208</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.6402901163223</v>
+        <v>-3.991137596169952</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.524214802999491</v>
+        <v>-4.446300552775663</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.293722872183343</v>
+        <v>-2.100034663692072</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.793613703597654</v>
+        <v>-2.975999682851329</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.89368988219849</v>
+        <v>-7.136206080456825</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.4012634995265</v>
+        <v>-2.2499763962518</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.427329070474888</v>
+        <v>-2.448313913202323</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.778074343416654</v>
+        <v>-4.9574951339987</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1344,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3682780688591308</v>
+        <v>0.2720698507449637</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4259219398983074</v>
+        <v>0.3459336609310376</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.01171462105689596</v>
+        <v>0.06835727097017757</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.401098318430821</v>
+        <v>5.725538616656585</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.557988728548964</v>
+        <v>4.572446282660602</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.402191832705343</v>
+        <v>-1.436616382244125</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.076975111155126</v>
+        <v>2.288233903326249</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.806605078831455</v>
+        <v>1.823533486720645</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.291441455993668</v>
+        <v>-1.442293499801702</v>
       </c>
     </row>
     <row r="25">
@@ -1407,7 +1403,7 @@
         <v>-0.06345912026711387</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.6042047943716987</v>
+        <v>-0.6042047943716988</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1414,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.890180755130355</v>
+        <v>-0.8699054000322497</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8224765310426881</v>
+        <v>-0.8522587126357</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.9284454130205191</v>
+        <v>-0.9346001664815532</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2851074918268356</v>
+        <v>-0.2759219252182997</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3505560608103651</v>
+        <v>-0.3418790933261781</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7863440261456001</v>
+        <v>-0.7955814805752738</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.405462276984862</v>
+        <v>-0.3747345655484099</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4080203808650945</v>
+        <v>-0.4127895389298839</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.7838614885881051</v>
+        <v>-0.7694126457806472</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1449,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.421599328061637</v>
+        <v>0.3574031925374103</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4357957979660338</v>
+        <v>0.3863590805740586</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4694210847851376</v>
+        <v>0.5049554250958449</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.071384366180867</v>
+        <v>1.15125652262516</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9343083207044395</v>
+        <v>0.9054667835771287</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2562073086226461</v>
+        <v>-0.2518647621100508</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5288803200936327</v>
+        <v>0.606329252369489</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4712485527903251</v>
+        <v>0.4693472897430566</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.3127988731733226</v>
+        <v>-0.2802064664104538</v>
       </c>
     </row>
     <row r="28">
@@ -1507,7 +1503,7 @@
         <v>-2.000202163277135</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.705065510817557</v>
+        <v>2.705065510817556</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.935949546856191</v>
@@ -1516,7 +1512,7 @@
         <v>-1.010556813223267</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.644810209543834</v>
+        <v>2.644810209543835</v>
       </c>
     </row>
     <row r="29">
@@ -1527,31 +1523,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0101206330906903</v>
+        <v>0</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.341987891929883</v>
+        <v>-1.367163754655256</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5905901282927807</v>
+        <v>0.6632827698602717</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.095883898004072</v>
+        <v>-1.100172946434313</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.392279802027478</v>
+        <v>-5.965368218194256</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.182820229657691</v>
+        <v>-1.376329991611701</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.06092556305543891</v>
+        <v>-0.1901098449728158</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.251856312571326</v>
+        <v>-3.023622237901404</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3469944571520386</v>
+        <v>0.02672179625242923</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1558,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.348917425428104</v>
+        <v>4.375924597142409</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8530924958344984</v>
+        <v>0.8597683441215113</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.497933650683556</v>
+        <v>4.587610536643454</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.930344510411105</v>
+        <v>9.621830835974473</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.711912260028973</v>
+        <v>1.610499773092327</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.346389574435079</v>
+        <v>6.343934386603911</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.940528420020385</v>
+        <v>5.87063380551929</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.042201297151637</v>
+        <v>1.013361015697638</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.785752583721173</v>
+        <v>4.60090236320065</v>
       </c>
     </row>
     <row r="31">
@@ -1612,7 +1608,7 @@
         <v>-0.3814760220724702</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5159066665648538</v>
+        <v>0.5159066665648536</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.023950606911165</v>
@@ -1621,7 +1617,7 @@
         <v>-0.3524448379319721</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.9224119747313576</v>
+        <v>0.9224119747313578</v>
       </c>
     </row>
     <row r="32">
@@ -1635,22 +1631,22 @@
       <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="inlineStr"/>
       <c r="F32" s="6" t="n">
-        <v>-0.2371293915183587</v>
+        <v>-0.1988324325056122</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.819682933138559</v>
+        <v>-0.8271310318322761</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2614032207101172</v>
+        <v>-0.2108623426575322</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.04930540752121147</v>
+        <v>-0.07397682031685933</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.7815023721598395</v>
+        <v>-0.7360144877236082</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.04839149776467563</v>
+        <v>-0.02142957406945623</v>
       </c>
     </row>
     <row r="33">
@@ -1664,22 +1660,22 @@
       <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="inlineStr"/>
       <c r="F33" s="6" t="n">
-        <v>3.19236139437605</v>
+        <v>2.975868590267674</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9151480692044454</v>
+        <v>0.5820075064782979</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.037826827462791</v>
+        <v>2.368161155611835</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>3.120859301599174</v>
+        <v>3.290005339445514</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6042785117548068</v>
+        <v>0.9644472217666165</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3.129362548964846</v>
+        <v>2.634297204136877</v>
       </c>
     </row>
     <row r="34">
@@ -1709,7 +1705,7 @@
         <v>-2.755220541922665</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.1262653981410608</v>
+        <v>0.126265398141058</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-1.269416476256731</v>
@@ -1718,7 +1714,7 @@
         <v>-1.71158021863605</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.5164787402695756</v>
+        <v>0.5164787402695763</v>
       </c>
     </row>
     <row r="35">
@@ -1729,31 +1725,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.833395092494887</v>
+        <v>-2.835721237635995</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.813004409231699</v>
+        <v>-2.557796579262915</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.132424992062161</v>
+        <v>-1.223248417099652</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.028765105968082</v>
+        <v>-5.359615887159078</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-6.363836047765785</v>
+        <v>-6.369583979383614</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.714668829426602</v>
+        <v>-3.449230226794665</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.362045371637475</v>
+        <v>-3.61697821958716</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.607131315509994</v>
+        <v>-4.001635030149444</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.589528556575836</v>
+        <v>-1.589861178354571</v>
       </c>
     </row>
     <row r="36">
@@ -1764,31 +1760,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.7337634647512581</v>
+        <v>0.7450707641528301</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.122006828184599</v>
+        <v>1.196148126054712</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.836395944372241</v>
+        <v>3.35223533897047</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.642011945376646</v>
+        <v>2.568338869348832</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.6550012102288114</v>
+        <v>1.316959659633103</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.308368804689389</v>
+        <v>3.623897294460882</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.067574293429855</v>
+        <v>0.7583851098944084</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.441991886604706</v>
+        <v>0.4837652538346726</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.674417679359637</v>
+        <v>2.677904126633926</v>
       </c>
     </row>
     <row r="37">
@@ -1814,7 +1810,7 @@
         <v>-0.4219001842187081</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01933471165941144</v>
+        <v>0.01933471165941102</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.3040937435290131</v>
@@ -1823,7 +1819,7 @@
         <v>-0.4100158188981779</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1237245273866763</v>
+        <v>0.1237245273866765</v>
       </c>
     </row>
     <row r="38">
@@ -1833,28 +1829,32 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C38" s="6" t="inlineStr"/>
-      <c r="D38" s="6" t="inlineStr"/>
+      <c r="C38" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5172866225271036</v>
+        <v>-0.4723212440514465</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.601286993606715</v>
+        <v>-0.6230999526065555</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.7458295124598204</v>
+        <v>-0.7590230096261953</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4240416976565202</v>
+        <v>-0.3845053599409703</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.6515118539974046</v>
+        <v>-0.6718288603883871</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.7052382313764195</v>
+        <v>-0.7216156864305177</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2958808016238834</v>
+        <v>-0.3113459813357392</v>
       </c>
     </row>
     <row r="39">
@@ -1864,28 +1864,32 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C39" s="6" t="inlineStr"/>
-      <c r="D39" s="6" t="inlineStr"/>
+      <c r="C39" s="6" t="n">
+        <v>3.376152930568457</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>3.763156072691798</v>
+      </c>
       <c r="E39" s="6" t="n">
-        <v>3.788614467480247</v>
+        <v>4.798802735762678</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5950262850040005</v>
+        <v>0.5335452394948419</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.18285088902558</v>
+        <v>0.3255372137999755</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.7701226091402522</v>
+        <v>0.864429593913856</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3447911166780641</v>
+        <v>0.2516654384743527</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.19152218886034</v>
+        <v>0.205218285636963</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.8925491048675924</v>
+        <v>0.9080595342289404</v>
       </c>
     </row>
     <row r="40">
@@ -1924,7 +1928,7 @@
         <v>-1.66110185607246</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.437422075917597</v>
+        <v>2.4374220759176</v>
       </c>
     </row>
     <row r="41">
@@ -1935,31 +1939,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.573178267045869</v>
+        <v>-3.532492444597641</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.465360061834615</v>
+        <v>-2.672548705694455</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.3219537702353903</v>
+        <v>-0.3257332793845623</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.594284123501561</v>
+        <v>-2.822444727349028</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-5.13644174912048</v>
+        <v>-5.213246128810868</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.318076017427528</v>
+        <v>0.2360043410262911</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.527631458206193</v>
+        <v>-2.506700024958287</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.256719982787791</v>
+        <v>-3.285756285393365</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.5768520367478892</v>
+        <v>0.6107290952254345</v>
       </c>
     </row>
     <row r="42">
@@ -1970,31 +1974,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-0.1646087225705836</v>
+        <v>-0.1386519393601491</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.40056467254468</v>
+        <v>1.108680089847341</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.154103611158404</v>
+        <v>3.98126049004225</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.72637351586186</v>
+        <v>2.460098768649271</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.1718503555722619</v>
+        <v>-0.3760997278795948</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>5.882368215478219</v>
+        <v>5.968844718300987</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.7548203490459233</v>
+        <v>0.7850397848509845</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.09755534283544198</v>
+        <v>-0.1444315939117639</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.275023526985909</v>
+        <v>4.151749170604357</v>
       </c>
     </row>
     <row r="43">
@@ -2029,7 +2033,7 @@
         <v>-0.346753516019924</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.5088096625497605</v>
+        <v>0.5088096625497611</v>
       </c>
     </row>
     <row r="44">
@@ -2040,31 +2044,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.843749167386047</v>
+        <v>-0.8435929463395043</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6021162109791772</v>
+        <v>-0.6257369548465831</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1103722948081121</v>
+        <v>-0.1170711880175318</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.3328303406226032</v>
+        <v>-0.3571268938214404</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6432887251188957</v>
+        <v>-0.6698232382493294</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0420138915864558</v>
+        <v>0.02485364891483251</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.4550647777633904</v>
+        <v>-0.4471458729854119</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.5570434269032886</v>
+        <v>-0.5728575936455084</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.09666791657790975</v>
+        <v>0.103944643492808</v>
       </c>
     </row>
     <row r="45">
@@ -2075,31 +2079,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.08337889515130642</v>
+        <v>-0.01470478193987722</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7141799786125992</v>
+        <v>0.5740929107164906</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.055467231031226</v>
+        <v>1.938410540088561</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5456713351761442</v>
+        <v>0.4724043402763407</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.02190336858543652</v>
+        <v>-0.05805165426026404</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.264415774153409</v>
+        <v>1.181024430105417</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1850222246543292</v>
+        <v>0.2051238700238707</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.004923246174853098</v>
+        <v>-0.02356653635193612</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.091604566721412</v>
+        <v>1.054960963986714</v>
       </c>
     </row>
     <row r="46">
@@ -2149,31 +2153,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-3.21682547914452</v>
+        <v>-3.145764960390308</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.10431095896436</v>
+        <v>-3.076109308639245</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.72245851779939</v>
+        <v>-3.590794687155577</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.059125961703006</v>
+        <v>-0.9179897819433411</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.437739394811429</v>
+        <v>-1.489964269688305</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-3.070325144051302</v>
+        <v>-2.971906823210781</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.548421600722345</v>
+        <v>-1.592766224591778</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.886391662858998</v>
+        <v>-1.820884202742854</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-2.807072069218378</v>
+        <v>-2.965410137577924</v>
       </c>
     </row>
     <row r="48">
@@ -2184,31 +2188,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.515001638582099</v>
+        <v>-0.5182069000103442</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.3685962908520111</v>
+        <v>-0.2858528740739039</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-1.189118591086402</v>
+        <v>-1.152645911136507</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.861371909607729</v>
+        <v>2.943583300735626</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.072986000594921</v>
+        <v>2.331788477995589</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.02445308047115136</v>
+        <v>-0.121151510462509</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.8599081331091895</v>
+        <v>0.8178486952177534</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.4731862210965802</v>
+        <v>0.4802916760213082</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.9881463552327238</v>
+        <v>-1.031301887875249</v>
       </c>
     </row>
     <row r="49">
@@ -2234,7 +2238,7 @@
         <v>0.07162220947090442</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.4488617906150061</v>
+        <v>-0.448861790615006</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.1239955632724511</v>
@@ -2254,31 +2258,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.91781757858224</v>
+        <v>-0.9179193689560872</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.8729927241740707</v>
+        <v>-0.8753917297399739</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.2601427526672186</v>
+        <v>-0.2165801605923514</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3778352256097825</v>
+        <v>-0.3709482596946951</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.684352790237583</v>
+        <v>-0.6851354607970663</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.4326143990171219</v>
+        <v>-0.4533918276472182</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.5189483817705298</v>
+        <v>-0.5049378582415769</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.7762612449609632</v>
+        <v>-0.7906076301077904</v>
       </c>
     </row>
     <row r="51">
@@ -2289,31 +2293,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.1893174300416012</v>
+        <v>-0.2386860333087382</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1215317918591422</v>
+        <v>-0.1295157118439181</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.4760946871612394</v>
+        <v>-0.5636866651747144</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.092466082542239</v>
+        <v>1.248704045220557</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.8743510574935224</v>
+        <v>0.9409808565352028</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.06321521749061473</v>
+        <v>-0.03895950714654437</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.3597775501809412</v>
+        <v>0.367005725054903</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2229244849519323</v>
+        <v>0.2390392741562875</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.4044525936229932</v>
+        <v>-0.4265662373206062</v>
       </c>
     </row>
     <row r="52">
@@ -2334,7 +2338,7 @@
         <v>-0.9601946716299704</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-0.05545402575875789</v>
+        <v>-0.05545402575875824</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>0.6934189244949395</v>
@@ -2363,31 +2367,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.596642085404755</v>
+        <v>-1.587630736586568</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.57370432025643</v>
+        <v>-1.641553052448052</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.7836157292027517</v>
+        <v>-0.7984843109528376</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.3396462238890913</v>
+        <v>-0.4229436969414897</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-2.085694515694662</v>
+        <v>-2.149825294327105</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-0.9490136649234432</v>
+        <v>-0.8631537719221427</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-0.7636503376358741</v>
+        <v>-0.8006937287196645</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-1.641993522204265</v>
+        <v>-1.661553559218296</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-0.5743500045751919</v>
+        <v>-0.5877032656718389</v>
       </c>
     </row>
     <row r="54">
@@ -2398,31 +2402,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-0.2469060596698779</v>
+        <v>-0.2302014625329176</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.2857831067373704</v>
+        <v>-0.3853561461672795</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.6818873241261516</v>
+        <v>0.6465489918402922</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.874208215814856</v>
+        <v>1.896258492078192</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-0.103247402285508</v>
+        <v>-0.1547398466311844</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1.034959236015292</v>
+        <v>0.9838472285722174</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>0.5896776872375022</v>
+        <v>0.5506529124734822</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-0.3669212344535682</v>
+        <v>-0.4394482724118588</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>0.6690626322589611</v>
+        <v>0.6859590216837624</v>
       </c>
     </row>
     <row r="55">
@@ -2439,7 +2443,7 @@
         <v>-0.4292110438219654</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.02478818200442899</v>
+        <v>-0.02478818200442914</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.1304052364895432</v>
@@ -2468,31 +2472,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.6124421739050109</v>
+        <v>-0.6148130765842882</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.6038146140977488</v>
+        <v>-0.6242240141536258</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.2948761741586014</v>
+        <v>-0.2953366617793435</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.05833370006228147</v>
+        <v>-0.06883050534809793</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.3637264977768176</v>
+        <v>-0.3701347699345516</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.1588346666663613</v>
+        <v>-0.1501695700873353</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.1829022440104959</v>
+        <v>-0.1913306360962364</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.3999045495286468</v>
+        <v>-0.3994901764190107</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.1410211468537873</v>
+        <v>-0.1438544958147079</v>
       </c>
     </row>
     <row r="57">
@@ -2503,31 +2507,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.14181946804576</v>
+        <v>-0.1197920947583093</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.1497630930993492</v>
+        <v>-0.2002426563937686</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.3701235927606707</v>
+        <v>0.3474692536449964</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.3819594010299929</v>
+        <v>0.3940254708318811</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.02135199675573115</v>
+        <v>-0.03128346930199972</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.2258966071013844</v>
+        <v>0.2110093645103346</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1728021421058856</v>
+        <v>0.1616946152202693</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.1043789711885148</v>
+        <v>-0.1234224600185681</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.2065935160007157</v>
+        <v>0.1984043378460677</v>
       </c>
     </row>
     <row r="58">
